--- a/.templates/Data/Configs/BasicDispatcherConfig.xlsx
+++ b/.templates/Data/Configs/BasicDispatcherConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eyash\Documents\UiPath\LazyFramework\.templates\Data\Configs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yash.brahmbhatt\Documents\UiPath\Internal\LazyFramework\.templates\Data\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A8E46B-CAD4-476F-8A1D-9B003907C7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B914A0-8917-4802-A1AC-41ED885F003C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="36780" windowHeight="21820" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11310" yWindow="2220" windowWidth="37305" windowHeight="15765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
   <si>
     <t>Name</t>
   </si>
@@ -149,6 +149,21 @@
   </si>
   <si>
     <t>The URL of the IMAP server.</t>
+  </si>
+  <si>
+    <t>Maintenance_Start</t>
+  </si>
+  <si>
+    <t>00:00:00</t>
+  </si>
+  <si>
+    <t>The start of a maintenance window.</t>
+  </si>
+  <si>
+    <t>Maintenance_End</t>
+  </si>
+  <si>
+    <t>The end of a maintenance window.</t>
   </si>
 </sst>
 </file>
@@ -184,8 +199,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,20 +482,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -490,7 +506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -501,7 +517,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -512,7 +528,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -523,7 +539,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -534,7 +550,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -545,7 +561,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -554,6 +570,28 @@
       </c>
       <c r="C10" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -569,13 +607,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -599,12 +637,12 @@
       <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -618,7 +656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -632,7 +670,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -646,7 +684,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -660,7 +698,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -674,7 +712,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -688,7 +726,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -715,16 +753,16 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -741,7 +779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -752,7 +790,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -772,13 +810,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243CC52E-FA98-4FED-908E-137F4AD63F9F}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
